--- a/src/assets/Template Excel/Layout_CT_Curing.xlsx
+++ b/src/assets/Template Excel/Layout_CT_Curing.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TABLE SRI\NEW 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SRI Projek\SRI FE\Terbaru 23-11-2024\sri_monthly_planning_fe\src\assets\Template Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B48799-E159-4A75-BAD6-67CFB0799BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28BC6ECB-3C4C-4B4E-878C-09F40E7AE106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{6DA0EC4C-990A-47CA-B09E-B24038995E24}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{6DA0EC4C-990A-47CA-B09E-B24038995E24}"/>
   </bookViews>
   <sheets>
     <sheet name="CT CURING" sheetId="3" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -131,7 +129,7 @@
     <t>HR/1000 PC</t>
   </si>
   <si>
-    <t>PART NUMBER</t>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -235,7 +233,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="35">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -585,23 +583,47 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="medium">
         <color indexed="64"/>
       </left>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="medium">
+      <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -609,9 +631,7 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -620,51 +640,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -720,176 +705,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -897,6 +750,136 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -916,9 +899,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2013 - 2022">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -956,7 +939,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2013 - 2022">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -1062,7 +1045,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2013 - 2022">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1204,7 +1187,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1215,35 +1198,33 @@
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="7.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.5546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="13.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.88671875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.33203125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="13.08984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.90625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.81640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.36328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="17.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
+    <row r="1" spans="1:36" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="B1" s="53" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="32"/>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
+      <c r="E1" s="54"/>
+      <c r="F1" s="54"/>
+      <c r="G1" s="54"/>
+      <c r="H1" s="54"/>
+      <c r="I1" s="54"/>
+      <c r="J1" s="54"/>
+      <c r="K1" s="55"/>
+      <c r="L1" s="56"/>
       <c r="M1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1256,60 +1237,60 @@
         <v>6</v>
       </c>
       <c r="R1" s="4"/>
-      <c r="S1" s="33" t="s">
+      <c r="S1" s="57" t="s">
         <v>7</v>
       </c>
-      <c r="T1" s="34"/>
-      <c r="U1" s="34"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="36" t="s">
+      <c r="T1" s="58"/>
+      <c r="U1" s="58"/>
+      <c r="V1" s="59"/>
+      <c r="W1" s="60" t="s">
         <v>8</v>
       </c>
-      <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
-      <c r="Z1" s="37"/>
-      <c r="AA1" s="37"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="39" t="s">
+      <c r="X1" s="61"/>
+      <c r="Y1" s="61"/>
+      <c r="Z1" s="61"/>
+      <c r="AA1" s="61"/>
+      <c r="AB1" s="62"/>
+      <c r="AC1" s="63" t="s">
         <v>9</v>
       </c>
-      <c r="AD1" s="40"/>
-      <c r="AE1" s="40"/>
-      <c r="AF1" s="40"/>
-      <c r="AG1" s="40"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="41"/>
-      <c r="AJ1" s="42"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="66"/>
     </row>
-    <row r="2" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A2" s="43" t="s">
+    <row r="2" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="67" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="44" t="s">
-        <v>31</v>
-      </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="46" t="s">
+      <c r="D2" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="46" t="s">
+      <c r="E2" s="71" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="46" t="s">
+      <c r="F2" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="G2" s="46" t="s">
+      <c r="G2" s="71" t="s">
         <v>14</v>
       </c>
-      <c r="H2" s="45" t="s">
+      <c r="H2" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="45" t="s">
+      <c r="I2" s="69" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="47" t="s">
+      <c r="J2" s="73" t="s">
         <v>17</v>
       </c>
       <c r="K2" s="5" t="s">
@@ -1318,18 +1299,18 @@
       <c r="L2" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="75" t="s">
         <v>19</v>
       </c>
-      <c r="N2" s="49"/>
-      <c r="O2" s="50"/>
+      <c r="N2" s="76"/>
+      <c r="O2" s="77"/>
       <c r="P2" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q2" s="28" t="s">
+      <c r="Q2" s="51" t="s">
         <v>21</v>
       </c>
-      <c r="R2" s="22" t="s">
+      <c r="R2" s="40" t="s">
         <v>22</v>
       </c>
       <c r="S2" s="8" t="s">
@@ -1341,7 +1322,7 @@
       <c r="U2" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="42" t="s">
         <v>24</v>
       </c>
       <c r="W2" s="10" t="s">
@@ -1356,10 +1337,10 @@
       <c r="Z2" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="AA2" s="24" t="s">
+      <c r="AA2" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="AB2" s="25" t="s">
+      <c r="AB2" s="46" t="s">
         <v>22</v>
       </c>
       <c r="AC2" s="13" t="s">
@@ -1374,94 +1355,94 @@
       <c r="AF2" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="AG2" s="26" t="s">
+      <c r="AG2" s="48" t="s">
         <v>25</v>
       </c>
-      <c r="AH2" s="27" t="s">
+      <c r="AH2" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="AI2" s="18" t="s">
+      <c r="AI2" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="AJ2" s="20" t="s">
+      <c r="AJ2" s="38" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="53"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
-      <c r="H3" s="53"/>
-      <c r="I3" s="53"/>
-      <c r="J3" s="55"/>
-      <c r="K3" s="56" t="s">
+    <row r="3" spans="1:36" ht="29" x14ac:dyDescent="0.35">
+      <c r="A3" s="35"/>
+      <c r="B3" s="68"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="72"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="74"/>
+      <c r="K3" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L3" s="57" t="s">
+      <c r="L3" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="M3" s="58">
+      <c r="M3" s="20">
         <v>1</v>
       </c>
-      <c r="N3" s="59">
+      <c r="N3" s="21">
         <v>2</v>
       </c>
-      <c r="O3" s="59">
+      <c r="O3" s="21">
         <v>3</v>
       </c>
-      <c r="P3" s="60">
+      <c r="P3" s="22">
         <v>4</v>
       </c>
-      <c r="Q3" s="61"/>
-      <c r="R3" s="62"/>
-      <c r="S3" s="63" t="s">
+      <c r="Q3" s="52"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="T3" s="64" t="s">
+      <c r="T3" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="U3" s="64" t="s">
+      <c r="U3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="V3" s="65"/>
-      <c r="W3" s="66" t="s">
+      <c r="V3" s="43"/>
+      <c r="W3" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="X3" s="67" t="s">
+      <c r="X3" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="Y3" s="67" t="s">
+      <c r="Y3" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="Z3" s="68" t="s">
+      <c r="Z3" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="71" t="s">
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="47"/>
+      <c r="AC3" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="AD3" s="72" t="s">
+      <c r="AD3" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="AE3" s="72" t="s">
+      <c r="AE3" s="29" t="s">
         <v>2</v>
       </c>
-      <c r="AF3" s="73" t="s">
+      <c r="AF3" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="AG3" s="74"/>
-      <c r="AH3" s="21"/>
-      <c r="AI3" s="19"/>
-      <c r="AJ3" s="21"/>
+      <c r="AG3" s="49"/>
+      <c r="AH3" s="39"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="39"/>
     </row>
-    <row r="4" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A4" s="75"/>
-      <c r="B4" s="75"/>
+    <row r="4" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A4" s="31"/>
+      <c r="B4" s="34"/>
       <c r="C4" s="17"/>
       <c r="D4" s="17"/>
       <c r="E4" s="17"/>
@@ -1470,14 +1451,14 @@
       <c r="H4" s="17"/>
       <c r="I4" s="17"/>
       <c r="J4" s="17"/>
-      <c r="K4" s="75"/>
-      <c r="L4" s="75"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="76"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="32"/>
       <c r="Q4" s="17"/>
-      <c r="R4" s="77"/>
+      <c r="R4" s="33"/>
       <c r="S4" s="17"/>
       <c r="T4" s="17"/>
       <c r="U4" s="17"/>
@@ -1497,9 +1478,9 @@
       <c r="AI4" s="17"/>
       <c r="AJ4" s="17"/>
     </row>
-    <row r="5" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A5" s="75"/>
-      <c r="B5" s="75"/>
+    <row r="5" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A5" s="31"/>
+      <c r="B5" s="34"/>
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17"/>
@@ -1508,14 +1489,14 @@
       <c r="H5" s="17"/>
       <c r="I5" s="17"/>
       <c r="J5" s="17"/>
-      <c r="K5" s="75"/>
-      <c r="L5" s="75"/>
-      <c r="M5" s="76"/>
-      <c r="N5" s="76"/>
-      <c r="O5" s="76"/>
-      <c r="P5" s="76"/>
+      <c r="K5" s="31"/>
+      <c r="L5" s="31"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="O5" s="32"/>
+      <c r="P5" s="32"/>
       <c r="Q5" s="17"/>
-      <c r="R5" s="77"/>
+      <c r="R5" s="33"/>
       <c r="S5" s="17"/>
       <c r="T5" s="17"/>
       <c r="U5" s="17"/>
@@ -1535,9 +1516,9 @@
       <c r="AI5" s="17"/>
       <c r="AJ5" s="17"/>
     </row>
-    <row r="6" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A6" s="75"/>
-      <c r="B6" s="75"/>
+    <row r="6" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A6" s="31"/>
+      <c r="B6" s="34"/>
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
@@ -1546,14 +1527,14 @@
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
       <c r="J6" s="17"/>
-      <c r="K6" s="75"/>
-      <c r="L6" s="75"/>
-      <c r="M6" s="76"/>
-      <c r="N6" s="76"/>
-      <c r="O6" s="76"/>
-      <c r="P6" s="76"/>
+      <c r="K6" s="31"/>
+      <c r="L6" s="31"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
       <c r="Q6" s="17"/>
-      <c r="R6" s="77"/>
+      <c r="R6" s="33"/>
       <c r="S6" s="17"/>
       <c r="T6" s="17"/>
       <c r="U6" s="17"/>
@@ -1573,9 +1554,9 @@
       <c r="AI6" s="17"/>
       <c r="AJ6" s="17"/>
     </row>
-    <row r="7" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A7" s="75"/>
-      <c r="B7" s="75"/>
+    <row r="7" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A7" s="31"/>
+      <c r="B7" s="34"/>
       <c r="C7" s="17"/>
       <c r="D7" s="17"/>
       <c r="E7" s="17"/>
@@ -1584,14 +1565,14 @@
       <c r="H7" s="17"/>
       <c r="I7" s="17"/>
       <c r="J7" s="17"/>
-      <c r="K7" s="75"/>
-      <c r="L7" s="75"/>
-      <c r="M7" s="76"/>
-      <c r="N7" s="76"/>
-      <c r="O7" s="76"/>
-      <c r="P7" s="76"/>
+      <c r="K7" s="31"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
       <c r="Q7" s="17"/>
-      <c r="R7" s="77"/>
+      <c r="R7" s="33"/>
       <c r="S7" s="17"/>
       <c r="T7" s="17"/>
       <c r="U7" s="17"/>
@@ -1611,9 +1592,9 @@
       <c r="AI7" s="17"/>
       <c r="AJ7" s="17"/>
     </row>
-    <row r="8" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A8" s="75"/>
-      <c r="B8" s="75"/>
+    <row r="8" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A8" s="31"/>
+      <c r="B8" s="34"/>
       <c r="C8" s="17"/>
       <c r="D8" s="17"/>
       <c r="E8" s="17"/>
@@ -1622,14 +1603,14 @@
       <c r="H8" s="17"/>
       <c r="I8" s="17"/>
       <c r="J8" s="17"/>
-      <c r="K8" s="75"/>
-      <c r="L8" s="75"/>
-      <c r="M8" s="76"/>
-      <c r="N8" s="76"/>
-      <c r="O8" s="76"/>
-      <c r="P8" s="76"/>
+      <c r="K8" s="31"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
       <c r="Q8" s="17"/>
-      <c r="R8" s="77"/>
+      <c r="R8" s="33"/>
       <c r="S8" s="17"/>
       <c r="T8" s="17"/>
       <c r="U8" s="17"/>
@@ -1649,90 +1630,88 @@
       <c r="AI8" s="17"/>
       <c r="AJ8" s="17"/>
     </row>
-    <row r="9" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A9" s="75"/>
-      <c r="B9" s="75"/>
-      <c r="C9" s="75"/>
-      <c r="D9" s="75"/>
-      <c r="E9" s="75"/>
-      <c r="F9" s="75"/>
-      <c r="G9" s="75"/>
-      <c r="H9" s="75"/>
-      <c r="I9" s="75"/>
-      <c r="J9" s="75"/>
-      <c r="K9" s="75"/>
-      <c r="L9" s="75"/>
-      <c r="M9" s="75"/>
-      <c r="N9" s="75"/>
-      <c r="O9" s="75"/>
-      <c r="P9" s="75"/>
-      <c r="Q9" s="75"/>
-      <c r="R9" s="75"/>
-      <c r="S9" s="75"/>
-      <c r="T9" s="75"/>
-      <c r="U9" s="75"/>
-      <c r="V9" s="75"/>
-      <c r="W9" s="75"/>
-      <c r="X9" s="75"/>
-      <c r="Y9" s="75"/>
-      <c r="Z9" s="75"/>
-      <c r="AA9" s="75"/>
-      <c r="AB9" s="75"/>
-      <c r="AC9" s="75"/>
-      <c r="AD9" s="75"/>
-      <c r="AE9" s="75"/>
-      <c r="AF9" s="75"/>
-      <c r="AG9" s="75"/>
-      <c r="AH9" s="75"/>
-      <c r="AI9" s="75"/>
-      <c r="AJ9" s="75"/>
+    <row r="9" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A9" s="31"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="E9" s="31"/>
+      <c r="F9" s="31"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="31"/>
+      <c r="K9" s="31"/>
+      <c r="L9" s="31"/>
+      <c r="M9" s="31"/>
+      <c r="N9" s="31"/>
+      <c r="O9" s="31"/>
+      <c r="P9" s="31"/>
+      <c r="Q9" s="31"/>
+      <c r="R9" s="31"/>
+      <c r="S9" s="31"/>
+      <c r="T9" s="31"/>
+      <c r="U9" s="31"/>
+      <c r="V9" s="31"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="31"/>
+      <c r="Y9" s="31"/>
+      <c r="Z9" s="31"/>
+      <c r="AA9" s="31"/>
+      <c r="AB9" s="31"/>
+      <c r="AC9" s="31"/>
+      <c r="AD9" s="31"/>
+      <c r="AE9" s="31"/>
+      <c r="AF9" s="31"/>
+      <c r="AG9" s="31"/>
+      <c r="AH9" s="31"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
     </row>
-    <row r="10" spans="1:36" x14ac:dyDescent="0.3">
-      <c r="A10" s="75"/>
-      <c r="B10" s="75"/>
-      <c r="C10" s="75"/>
-      <c r="D10" s="75"/>
-      <c r="E10" s="75"/>
-      <c r="F10" s="75"/>
-      <c r="G10" s="75"/>
-      <c r="H10" s="75"/>
-      <c r="I10" s="75"/>
-      <c r="J10" s="75"/>
-      <c r="K10" s="75"/>
-      <c r="L10" s="75"/>
-      <c r="M10" s="75"/>
-      <c r="N10" s="75"/>
-      <c r="O10" s="75"/>
-      <c r="P10" s="75"/>
-      <c r="Q10" s="75"/>
-      <c r="R10" s="75"/>
-      <c r="S10" s="75"/>
-      <c r="T10" s="75"/>
-      <c r="U10" s="75"/>
-      <c r="V10" s="75"/>
-      <c r="W10" s="75"/>
-      <c r="X10" s="75"/>
-      <c r="Y10" s="75"/>
-      <c r="Z10" s="75"/>
-      <c r="AA10" s="75"/>
-      <c r="AB10" s="75"/>
-      <c r="AC10" s="75"/>
-      <c r="AD10" s="75"/>
-      <c r="AE10" s="75"/>
-      <c r="AF10" s="75"/>
-      <c r="AG10" s="75"/>
-      <c r="AH10" s="75"/>
-      <c r="AI10" s="75"/>
-      <c r="AJ10" s="75"/>
+    <row r="10" spans="1:36" x14ac:dyDescent="0.35">
+      <c r="A10" s="31"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+      <c r="AH10" s="31"/>
+      <c r="AI10" s="31"/>
+      <c r="AJ10" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="B1:L1"/>
     <mergeCell ref="S1:V1"/>
     <mergeCell ref="W1:AB1"/>
     <mergeCell ref="AC1:AJ1"/>
-    <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
@@ -1743,6 +1722,7 @@
     <mergeCell ref="I2:I3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="M2:O2"/>
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="AI2:AI3"/>
     <mergeCell ref="AJ2:AJ3"/>
     <mergeCell ref="R2:R3"/>
@@ -1751,6 +1731,7 @@
     <mergeCell ref="AB2:AB3"/>
     <mergeCell ref="AG2:AG3"/>
     <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Q2:Q3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
